--- a/src/main/TestData/数据.xlsx
+++ b/src/main/TestData/数据.xlsx
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/src/main/TestData/数据.xlsx
+++ b/src/main/TestData/数据.xlsx
@@ -4,22 +4,47 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="三方字段" sheetId="1" r:id="rId1"/>
+    <sheet name="颜值贷模型字段" sheetId="2" r:id="rId1"/>
+    <sheet name="三方字段" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>var_name</t>
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>yzd_ely_repay_rto_p1repayment</t>
+  </si>
+  <si>
+    <t>过去1笔还款记录中，提前还款占比</t>
+  </si>
+  <si>
+    <t>yzd_ely_repay_rto_p2repayment</t>
+  </si>
+  <si>
+    <t>过去2笔还款记录中，提前还款占比</t>
+  </si>
+  <si>
+    <t>yzd_ely_repay_rto_p3repayment</t>
+  </si>
+  <si>
+    <t>过去3笔还款记录中，提前还款占比</t>
+  </si>
+  <si>
+    <t>yzd_ely_repay_rto_p4repayment</t>
+  </si>
+  <si>
+    <t>过去4笔还款记录中，提前还款占比</t>
   </si>
   <si>
     <t>fl_lxf_socre_55</t>
@@ -387,12 +412,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,10 +439,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,39 +551,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,16 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,75 +595,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,7 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF5FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,186 +629,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -795,11 +832,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,32 +886,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,9 +912,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,13 +930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,152 +949,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,10 +1107,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1467,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="67.4615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.55" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1432,482 +1551,482 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" ht="17.55" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" ht="17.55" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" ht="17.55" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
